--- a/Variables_BC (1).xlsx
+++ b/Variables_BC (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Banco Central\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B496FAA-67AF-4A19-BDF2-E14323378E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188D19E-080D-4158-A311-67DE96AC7C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="372" windowWidth="23016" windowHeight="12336" xr2:uid="{FF9D9FEA-D875-481D-9700-950907E7CCBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FF9D9FEA-D875-481D-9700-950907E7CCBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Var" sheetId="1" r:id="rId1"/>
@@ -689,14 +689,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87611127-C26E-44A0-89D6-B800C6BB6306}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.21875" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="4" max="4" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,7 +732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -740,7 +740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -748,7 +748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,7 +756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -764,7 +764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -772,7 +772,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -780,7 +780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -788,7 +788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -796,7 +796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -804,7 +804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -812,7 +812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -820,7 +820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -828,7 +828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -836,7 +836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -844,7 +844,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -852,7 +852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -860,7 +860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -868,7 +868,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -876,7 +876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -884,7 +884,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -892,7 +892,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -900,7 +900,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -908,7 +908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -916,7 +916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -924,7 +924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -932,7 +932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -940,7 +940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -956,7 +956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -964,7 +964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -972,7 +972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -980,7 +980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -988,7 +988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -996,7 +996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
